--- a/retrieval/batch.xlsx
+++ b/retrieval/batch.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t>sed  '/jdk1.6/d' _* | sed '/lang:en/d' &gt; alltweets</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>./executeSearchTopic.sh retail jcrew&gt; ../data/_201211121601retailjcrew.txt</t>
+  </si>
+  <si>
+    <t>reatailers</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E42" activeCellId="0" pane="topLeft" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -504,7 +507,7 @@
       </c>
       <c r="B1" s="0" t="str">
         <f aca="false">TEXT(A1,"YYYYMMDDHHMM")</f>
-        <v>201211121602</v>
+        <v>201211121606</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>0</v>
@@ -522,7 +525,7 @@
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(A2," ",B2," ",C2,"&gt; ../data/_",$B$1,B2,SUBSTITUTE(SUBSTITUTE(C2,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics politic&gt; ../data/_201211121602politicspolitic.txt</v>
+        <v>./executeSearchTopic.sh politics politic&gt; ../data/_201211121606politicspolitic.txt</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -540,7 +543,7 @@
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE(A3," ",B3," ",C3,"&gt; ../data/_",$B$1,B3,SUBSTITUTE(SUBSTITUTE(C3,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics obama&gt; ../data/_201211121602politicsobama.txt</v>
+        <v>./executeSearchTopic.sh politics obama&gt; ../data/_201211121606politicsobama.txt</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>6</v>
@@ -558,7 +561,7 @@
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE(A4," ",B4," ",C4,"&gt; ../data/_",$B$1,B4,SUBSTITUTE(SUBSTITUTE(C4,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics romney&gt; ../data/_201211121602politicsromney.txt</v>
+        <v>./executeSearchTopic.sh politics romney&gt; ../data/_201211121606politicsromney.txt</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
@@ -576,7 +579,7 @@
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE(A5," ",B5," ",C5,"&gt; ../data/_",$B$1,B5,SUBSTITUTE(SUBSTITUTE(C5,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics government&gt; ../data/_201211121602politicsgovernment.txt</v>
+        <v>./executeSearchTopic.sh politics government&gt; ../data/_201211121606politicsgovernment.txt</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -594,7 +597,7 @@
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE(A6," ",B6," ",C6,"&gt; ../data/_",$B$1,B6,SUBSTITUTE(SUBSTITUTE(C6,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics vote&gt; ../data/_201211121602politicsvote.txt</v>
+        <v>./executeSearchTopic.sh politics vote&gt; ../data/_201211121606politicsvote.txt</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>12</v>
@@ -612,7 +615,7 @@
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE(A7," ",B7," ",C7,"&gt; ../data/_",$B$1,B7,SUBSTITUTE(SUBSTITUTE(C7,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh politics election&gt; ../data/_201211121602politicselection.txt</v>
+        <v>./executeSearchTopic.sh politics election&gt; ../data/_201211121606politicselection.txt</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>14</v>
@@ -630,7 +633,7 @@
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE(A8," ",B8," ",C8,"&gt; ../data/_",$B$1,B8,SUBSTITUTE(SUBSTITUTE(C8,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh sports soccer&gt; ../data/_201211121602sportssoccer.txt</v>
+        <v>./executeSearchTopic.sh sports soccer&gt; ../data/_201211121606sportssoccer.txt</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
@@ -648,7 +651,7 @@
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE(A9," ",B9," ",C9,"&gt; ../data/_",$B$1,B9,SUBSTITUTE(SUBSTITUTE(C9,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh sports football&gt; ../data/_201211121602sportsfootball.txt</v>
+        <v>./executeSearchTopic.sh sports football&gt; ../data/_201211121606sportsfootball.txt</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>19</v>
@@ -666,7 +669,7 @@
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE(A10," ",B10," ",C10,"&gt; ../data/_",$B$1,B10,SUBSTITUTE(SUBSTITUTE(C10,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh sports basketball&gt; ../data/_201211121602sportsbasketball.txt</v>
+        <v>./executeSearchTopic.sh sports basketball&gt; ../data/_201211121606sportsbasketball.txt</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>21</v>
@@ -684,7 +687,7 @@
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE(A11," ",B11," ",C11,"&gt; ../data/_",$B$1,B11,SUBSTITUTE(SUBSTITUTE(C11,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh sports volleyball&gt; ../data/_201211121602sportsvolleyball.txt</v>
+        <v>./executeSearchTopic.sh sports volleyball&gt; ../data/_201211121606sportsvolleyball.txt</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>23</v>
@@ -702,7 +705,7 @@
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE(A12," ",B12," ",C12,"&gt; ../data/_",$B$1,B12,SUBSTITUTE(SUBSTITUTE(C12,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh fashion sartorialist&gt; ../data/_201211121602fashionsartorialist.txt</v>
+        <v>./executeSearchTopic.sh fashion sartorialist&gt; ../data/_201211121606fashionsartorialist.txt</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>26</v>
@@ -720,7 +723,7 @@
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE(A13," ",B13," ",C13,"&gt; ../data/_",$B$1,B13,SUBSTITUTE(SUBSTITUTE(C13,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh fashion 032c&gt; ../data/_201211121602fashion032c.txt</v>
+        <v>./executeSearchTopic.sh fashion 032c&gt; ../data/_201211121606fashion032c.txt</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>28</v>
@@ -738,7 +741,7 @@
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE(A14," ",B14," ",C14,"&gt; ../data/_",$B$1,B14,SUBSTITUTE(SUBSTITUTE(C14,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh fashion 'Lara Stone'&gt; ../data/_201211121602fashionLaraStone.txt</v>
+        <v>./executeSearchTopic.sh fashion 'Lara Stone'&gt; ../data/_201211121606fashionLaraStone.txt</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>30</v>
@@ -756,7 +759,7 @@
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE(A15," ",B15," ",C15,"&gt; ../data/_",$B$1,B15,SUBSTITUTE(SUBSTITUTE(C15,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh fashion fashion&gt; ../data/_201211121602fashionfashion.txt</v>
+        <v>./executeSearchTopic.sh fashion fashion&gt; ../data/_201211121606fashionfashion.txt</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>31</v>
@@ -774,7 +777,7 @@
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE(A16," ",B16," ",C16,"&gt; ../data/_",$B$1,B16,SUBSTITUTE(SUBSTITUTE(C16,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology apple&gt; ../data/_201211121602technologyapple.txt</v>
+        <v>./executeSearchTopic.sh technology apple&gt; ../data/_201211121606technologyapple.txt</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>34</v>
@@ -792,7 +795,7 @@
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE(A17," ",B17," ",C17,"&gt; ../data/_",$B$1,B17,SUBSTITUTE(SUBSTITUTE(C17,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology samsung&gt; ../data/_201211121602technologysamsung.txt</v>
+        <v>./executeSearchTopic.sh technology samsung&gt; ../data/_201211121606technologysamsung.txt</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>36</v>
@@ -810,7 +813,7 @@
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE(A18," ",B18," ",C18,"&gt; ../data/_",$B$1,B18,SUBSTITUTE(SUBSTITUTE(C18,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology google&gt; ../data/_201211121602technologygoogle.txt</v>
+        <v>./executeSearchTopic.sh technology google&gt; ../data/_201211121606technologygoogle.txt</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>38</v>
@@ -828,7 +831,7 @@
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE(A19," ",B19," ",C19,"&gt; ../data/_",$B$1,B19,SUBSTITUTE(SUBSTITUTE(C19,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology oracle&gt; ../data/_201211121602technologyoracle.txt</v>
+        <v>./executeSearchTopic.sh technology oracle&gt; ../data/_201211121606technologyoracle.txt</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>40</v>
@@ -846,7 +849,7 @@
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE(A20," ",B20," ",C20,"&gt; ../data/_",$B$1,B20,SUBSTITUTE(SUBSTITUTE(C20,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology samsung&gt; ../data/_201211121602technologysamsung.txt</v>
+        <v>./executeSearchTopic.sh technology samsung&gt; ../data/_201211121606technologysamsung.txt</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>36</v>
@@ -864,7 +867,7 @@
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE(A21," ",B21," ",C21,"&gt; ../data/_",$B$1,B21,SUBSTITUTE(SUBSTITUTE(C21,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology digital&gt; ../data/_201211121602technologydigital.txt</v>
+        <v>./executeSearchTopic.sh technology digital&gt; ../data/_201211121606technologydigital.txt</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>42</v>
@@ -882,7 +885,7 @@
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE(A22," ",B22," ",C22,"&gt; ../data/_",$B$1,B22,SUBSTITUTE(SUBSTITUTE(C22,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology tablet&gt; ../data/_201211121602technologytablet.txt</v>
+        <v>./executeSearchTopic.sh technology tablet&gt; ../data/_201211121606technologytablet.txt</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>44</v>
@@ -900,7 +903,7 @@
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE(A23," ",B23," ",C23,"&gt; ../data/_",$B$1,B23,SUBSTITUTE(SUBSTITUTE(C23,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology smartphone&gt; ../data/_201211121602technologysmartphone.txt</v>
+        <v>./executeSearchTopic.sh technology smartphone&gt; ../data/_201211121606technologysmartphone.txt</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>46</v>
@@ -918,7 +921,7 @@
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE(A24," ",B24," ",C24,"&gt; ../data/_",$B$1,B24,SUBSTITUTE(SUBSTITUTE(C24,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology microsoft&gt; ../data/_201211121602technologymicrosoft.txt</v>
+        <v>./executeSearchTopic.sh technology microsoft&gt; ../data/_201211121606technologymicrosoft.txt</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>48</v>
@@ -936,7 +939,7 @@
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE(A25," ",B25," ",C25,"&gt; ../data/_",$B$1,B25,SUBSTITUTE(SUBSTITUTE(C25,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology netflix&gt; ../data/_201211121602technologynetflix.txt</v>
+        <v>./executeSearchTopic.sh technology netflix&gt; ../data/_201211121606technologynetflix.txt</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>50</v>
@@ -954,7 +957,7 @@
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE(A26," ",B26," ",C26,"&gt; ../data/_",$B$1,B26,SUBSTITUTE(SUBSTITUTE(C26,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh technology pandora&gt; ../data/_201211121602technologypandora.txt</v>
+        <v>./executeSearchTopic.sh technology pandora&gt; ../data/_201211121606technologypandora.txt</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>52</v>
@@ -972,7 +975,7 @@
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE(A27," ",B27," ",C27,"&gt; ../data/_",$B$1,B27,SUBSTITUTE(SUBSTITUTE(C27,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh socialmedia 'social media'&gt; ../data/_201211121602socialmediasocialmedia.txt</v>
+        <v>./executeSearchTopic.sh socialmedia 'social media'&gt; ../data/_201211121606socialmediasocialmedia.txt</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>55</v>
@@ -990,7 +993,7 @@
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE(A28," ",B28," ",C28,"&gt; ../data/_",$B$1,B28,SUBSTITUTE(SUBSTITUTE(C28,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh socialmedia facebook&gt; ../data/_201211121602socialmediafacebook.txt</v>
+        <v>./executeSearchTopic.sh socialmedia facebook&gt; ../data/_201211121606socialmediafacebook.txt</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>57</v>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE(A29," ",B29," ",C29,"&gt; ../data/_",$B$1,B29,SUBSTITUTE(SUBSTITUTE(C29,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh socialmedia twitter&gt; ../data/_201211121602socialmediatwitter.txt</v>
+        <v>./executeSearchTopic.sh socialmedia twitter&gt; ../data/_201211121606socialmediatwitter.txt</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>59</v>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE(A30," ",B30," ",C30,"&gt; ../data/_",$B$1,B30,SUBSTITUTE(SUBSTITUTE(C30,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business business&gt; ../data/_201211121602businessbusiness.txt</v>
+        <v>./executeSearchTopic.sh business business&gt; ../data/_201211121606businessbusiness.txt</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>61</v>
@@ -1044,7 +1047,7 @@
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE(A31," ",B31," ",C31,"&gt; ../data/_",$B$1,B31,SUBSTITUTE(SUBSTITUTE(C31,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business bank&gt; ../data/_201211121602businessbank.txt</v>
+        <v>./executeSearchTopic.sh business bank&gt; ../data/_201211121606businessbank.txt</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>63</v>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE(A32," ",B32," ",C32,"&gt; ../data/_",$B$1,B32,SUBSTITUTE(SUBSTITUTE(C32,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business dividend&gt; ../data/_201211121602businessdividend.txt</v>
+        <v>./executeSearchTopic.sh business dividend&gt; ../data/_201211121606businessdividend.txt</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>65</v>
@@ -1080,7 +1083,7 @@
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE(A33," ",B33," ",C33,"&gt; ../data/_",$B$1,B33,SUBSTITUTE(SUBSTITUTE(C33,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business finance&gt; ../data/_201211121602businessfinance.txt</v>
+        <v>./executeSearchTopic.sh business finance&gt; ../data/_201211121606businessfinance.txt</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>67</v>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE(A34," ",B34," ",C34,"&gt; ../data/_",$B$1,B34,SUBSTITUTE(SUBSTITUTE(C34,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business ipo&gt; ../data/_201211121602businessipo.txt</v>
+        <v>./executeSearchTopic.sh business ipo&gt; ../data/_201211121606businessipo.txt</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>69</v>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE(A35," ",B35," ",C35,"&gt; ../data/_",$B$1,B35,SUBSTITUTE(SUBSTITUTE(C35,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business money&gt; ../data/_201211121602businessmoney.txt</v>
+        <v>./executeSearchTopic.sh business money&gt; ../data/_201211121606businessmoney.txt</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>71</v>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE(A36," ",B36," ",C36,"&gt; ../data/_",$B$1,B36,SUBSTITUTE(SUBSTITUTE(C36,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business stock&gt; ../data/_201211121602businessstock.txt</v>
+        <v>./executeSearchTopic.sh business stock&gt; ../data/_201211121606businessstock.txt</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>73</v>
@@ -1152,7 +1155,7 @@
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE(A37," ",B37," ",C37,"&gt; ../data/_",$B$1,B37,SUBSTITUTE(SUBSTITUTE(C37,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business employee&gt; ../data/_201211121602businessemployee.txt</v>
+        <v>./executeSearchTopic.sh business employee&gt; ../data/_201211121606businessemployee.txt</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>75</v>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE(A38," ",B38," ",C38,"&gt; ../data/_",$B$1,B38,SUBSTITUTE(SUBSTITUTE(C38,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business economy&gt; ../data/_201211121602businesseconomy.txt</v>
+        <v>./executeSearchTopic.sh business economy&gt; ../data/_201211121606businesseconomy.txt</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>77</v>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE(A39," ",B39," ",C39,"&gt; ../data/_",$B$1,B39,SUBSTITUTE(SUBSTITUTE(C39,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business startup&gt; ../data/_201211121602businessstartup.txt</v>
+        <v>./executeSearchTopic.sh business startup&gt; ../data/_201211121606businessstartup.txt</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>79</v>
@@ -1206,7 +1209,7 @@
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE(A40," ",B40," ",C40,"&gt; ../data/_",$B$1,B40,SUBSTITUTE(SUBSTITUTE(C40,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business market&gt; ../data/_201211121602businessmarket.txt</v>
+        <v>./executeSearchTopic.sh business market&gt; ../data/_201211121606businessmarket.txt</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>81</v>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE(A41," ",B41," ",C41,"&gt; ../data/_",$B$1,B41,SUBSTITUTE(SUBSTITUTE(C41,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business bond&gt; ../data/_201211121602businessbond.txt</v>
+        <v>./executeSearchTopic.sh business bond&gt; ../data/_201211121606businessbond.txt</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>83</v>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE(A42," ",B42," ",C42,"&gt; ../data/_",$B$1,B42,SUBSTITUTE(SUBSTITUTE(C42,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business commodity&gt; ../data/_201211121602businesscommodity.txt</v>
+        <v>./executeSearchTopic.sh business commodity&gt; ../data/_201211121606businesscommodity.txt</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>85</v>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE(A43," ",B43," ",C43,"&gt; ../data/_",$B$1,B43,SUBSTITUTE(SUBSTITUTE(C43,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business wealth&gt; ../data/_201211121602businesswealth.txt</v>
+        <v>./executeSearchTopic.sh business wealth&gt; ../data/_201211121606businesswealth.txt</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>87</v>
@@ -1278,7 +1281,7 @@
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE(A44," ",B44," ",C44,"&gt; ../data/_",$B$1,B44,SUBSTITUTE(SUBSTITUTE(C44,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business 'wall street'&gt; ../data/_201211121602businesswallstreet.txt</v>
+        <v>./executeSearchTopic.sh business 'wall street'&gt; ../data/_201211121606businesswallstreet.txt</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>89</v>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE(A45," ",B45," ",C45,"&gt; ../data/_",$B$1,B45,SUBSTITUTE(SUBSTITUTE(C45,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh business earnings&gt; ../data/_201211121602businessearnings.txt</v>
+        <v>./executeSearchTopic.sh business earnings&gt; ../data/_201211121606businessearnings.txt</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>91</v>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE(A46," ",B46," ",C46,"&gt; ../data/_",$B$1,B46,SUBSTITUTE(SUBSTITUTE(C46,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh science environment&gt; ../data/_201211121602scienceenvironment.txt</v>
+        <v>./executeSearchTopic.sh science environment&gt; ../data/_201211121606scienceenvironment.txt</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>94</v>
@@ -1332,7 +1335,7 @@
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE(A47," ",B47," ",C47,"&gt; ../data/_",$B$1,B47,SUBSTITUTE(SUBSTITUTE(C47,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh science space&gt; ../data/_201211121602sciencespace.txt</v>
+        <v>./executeSearchTopic.sh science space&gt; ../data/_201211121606sciencespace.txt</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>96</v>
@@ -1350,7 +1353,7 @@
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE(A48," ",B48," ",C48,"&gt; ../data/_",$B$1,B48,SUBSTITUTE(SUBSTITUTE(C48,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh science cosmos&gt; ../data/_201211121602sciencecosmos.txt</v>
+        <v>./executeSearchTopic.sh science cosmos&gt; ../data/_201211121606sciencecosmos.txt</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>98</v>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE(A49," ",B49," ",C49,"&gt; ../data/_",$B$1,B49,SUBSTITUTE(SUBSTITUTE(C49,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment entertainment&gt; ../data/_201211121602entertainmententertainment.txt</v>
+        <v>./executeSearchTopic.sh entertainment entertainment&gt; ../data/_201211121606entertainmententertainment.txt</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>100</v>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE(A50," ",B50," ",C50,"&gt; ../data/_",$B$1,B50,SUBSTITUTE(SUBSTITUTE(C50,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment mtv&gt; ../data/_201211121602entertainmentmtv.txt</v>
+        <v>./executeSearchTopic.sh entertainment mtv&gt; ../data/_201211121606entertainmentmtv.txt</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>102</v>
@@ -1404,7 +1407,7 @@
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE(A51," ",B51," ",C51,"&gt; ../data/_",$B$1,B51,SUBSTITUTE(SUBSTITUTE(C51,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment music&gt; ../data/_201211121602entertainmentmusic.txt</v>
+        <v>./executeSearchTopic.sh entertainment music&gt; ../data/_201211121606entertainmentmusic.txt</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>104</v>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE(A52," ",B52," ",C52,"&gt; ../data/_",$B$1,B52,SUBSTITUTE(SUBSTITUTE(C52,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment videos&gt; ../data/_201211121602entertainmentvideos.txt</v>
+        <v>./executeSearchTopic.sh entertainment videos&gt; ../data/_201211121606entertainmentvideos.txt</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>106</v>
@@ -1440,7 +1443,7 @@
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE(A53," ",B53," ",C53,"&gt; ../data/_",$B$1,B53,SUBSTITUTE(SUBSTITUTE(C53,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment books&gt; ../data/_201211121602entertainmentbooks.txt</v>
+        <v>./executeSearchTopic.sh entertainment books&gt; ../data/_201211121606entertainmentbooks.txt</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>108</v>
@@ -1458,7 +1461,7 @@
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE(A54," ",B54," ",C54,"&gt; ../data/_",$B$1,B54,SUBSTITUTE(SUBSTITUTE(C54,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh entertainment theatre&gt; ../data/_201211121602entertainmenttheatre.txt</v>
+        <v>./executeSearchTopic.sh entertainment theatre&gt; ../data/_201211121606entertainmenttheatre.txt</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>110</v>
@@ -1476,7 +1479,7 @@
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE(A55," ",B55," ",C55,"&gt; ../data/_",$B$1,B55,SUBSTITUTE(SUBSTITUTE(C55,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh retail macys&gt; ../data/_201211121602retailmacys.txt</v>
+        <v>./executeSearchTopic.sh retail macys&gt; ../data/_201211121606retailmacys.txt</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>113</v>
@@ -1494,7 +1497,7 @@
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE(A56," ",B56," ",C56,"&gt; ../data/_",$B$1,B56,SUBSTITUTE(SUBSTITUTE(C56,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh retail bloomingdales&gt; ../data/_201211121602retailbloomingdales.txt</v>
+        <v>./executeSearchTopic.sh retail bloomingdales&gt; ../data/_201211121606retailbloomingdales.txt</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>115</v>
@@ -1512,7 +1515,7 @@
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE(A57," ",B57," ",C57,"&gt; ../data/_",$B$1,B57,SUBSTITUTE(SUBSTITUTE(C57,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh retail ross&gt; ../data/_201211121602retailross.txt</v>
+        <v>./executeSearchTopic.sh retail ross&gt; ../data/_201211121606retailross.txt</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>117</v>
@@ -1530,7 +1533,7 @@
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE(A58," ",B58," ",C58,"&gt; ../data/_",$B$1,B58,SUBSTITUTE(SUBSTITUTE(C58,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh retail gap&gt; ../data/_201211121602retailgap.txt</v>
+        <v>./executeSearchTopic.sh retail gap&gt; ../data/_201211121606retailgap.txt</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>119</v>
@@ -1548,9 +1551,27 @@
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE(A59," ",B59," ",C59,"&gt; ../data/_",$B$1,B59,SUBSTITUTE(SUBSTITUTE(C59,"'","")," ",""),".txt")</f>
-        <v>./executeSearchTopic.sh retail jcrew&gt; ../data/_201211121602retailjcrew.txt</v>
+        <v>./executeSearchTopic.sh retail jcrew&gt; ../data/_201211121606retailjcrew.txt</v>
       </c>
       <c r="E59" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="false">CONCATENATE(A60," ",B60," ",C60,"&gt; ../data/_",$B$1,B60,SUBSTITUTE(SUBSTITUTE(C60,"'","")," ",""),".txt")</f>
+        <v>./executeSearchTopic.sh retail reatailers&gt; ../data/_201211121606retailreatailers.txt</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>121</v>
       </c>
     </row>
